--- a/backend/data/보배드림.xlsx
+++ b/backend/data/보배드림.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,32 +481,32 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>연기대상 수상소감 레젼 ㄷㄷㄷ</t>
+          <t>치매의 무서움</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>마포보안관</t>
+          <t>수색저격수</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2021.12.28 15:34</t>
+          <t>2021.12.29 16:21</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2995</t>
+          <t>4723</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>41</t>
         </is>
       </c>
     </row>
@@ -521,352 +521,32 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>오늘자 윤석열 방송기자클럽 토론회 요약</t>
+          <t>올해 노벨 댓글 최우수상</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>꿀보이스</t>
+          <t>오리피코</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2021.12.28 15:33</t>
+          <t>2021.12.29 16:13</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2576</t>
+          <t>6892</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>13</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>79</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>유머게시판</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>(속보)</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>초심초심초심</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:33</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3437</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>유머게시판</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>권성동 "윤석열, 토론 겁 안내..얕잡아 봤다간 후회할 것"</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Anotherme</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:32</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>437</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>유머게시판</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>사무실에 이쁜처자가 있었어요</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>바이프로스트</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:30</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4198</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>84</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>유머게시판</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>윤석열의 신기한 초능력</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>진로이즈백</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:28</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4347</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>76</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>유머게시판</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>"김건희씨에게도 기적만 일어날까요?"</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>고위공직자수사처</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:26</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1276</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>유머게시판</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>대장동 특검</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>djfoofah</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:20</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4697</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>104</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>유머게시판</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>이글이면 초고속으로 베스트 갔다구 왔쑤유</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>이글마</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:20</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2873</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>107</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>교통사고/사건/블랙박스</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>[블라인드복원] 택시에 치인 상황이예요</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>방향지지등</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:16</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>799</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>24</t>
+          <t>135</t>
         </is>
       </c>
     </row>

--- a/backend/data/보배드림.xlsx
+++ b/backend/data/보배드림.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,72 +481,32 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>치매의 무서움</t>
+          <t>올해안에 진급할수 있을까요?</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>수색저격수</t>
+          <t>국어시간에쳐졸았냐</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2021.12.29 16:21</t>
+          <t>2021.12.29 18:12</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4723</t>
+          <t>1213</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>11</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>41</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>유머게시판</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>올해 노벨 댓글 최우수상</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>오리피코</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>2021.12.29 16:13</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>6892</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>135</t>
+          <t>47</t>
         </is>
       </c>
     </row>

--- a/backend/data/보배드림.xlsx
+++ b/backend/data/보배드림.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,92 +413,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>분야</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>제목</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>글쓴이</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>날짜</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>조회수</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>댓글수</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>추천수</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>유머게시판</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>올해안에 진급할수 있을까요?</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>국어시간에쳐졸았냐</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>2021.12.29 18:12</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1213</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>